--- a/biology/Histoire de la zoologie et de la botanique/Ivan_Miessatsev/Ivan_Miessatsev.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ivan_Miessatsev/Ivan_Miessatsev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ivan Illarionovitch Miessatsev (Иван Илларионович Месяцев), né le 20 juin (2 juillet) 1885 dans la région d'Ekaterinodar et mort le 7 mai 1940 à Moscou, est un zoologiste soviétique qui fut l'un des fondateurs de l'océanologie soviétique et un explorateur de l'Arctique. Il était docteur ès sciences et professeur d'université.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Miessatsev naît au sein d'une famille de cosaques du Terek, mais il devient orphelin lorsque ses parents sont tués sous ses yeux par des bandits caucasiens. Il est élevé par un oncle. Il poursuit ses études de zoologie à l'université de Moscou, où il compte parmi les étudiants du professeur Kojevnikov (avec lequel il part en expédition en mer de Barents en 1908). Il effectue une mission d'études en France dans le bassin d'Arcachon à l'été 1910, puis à Nice. L'été suivant, il est à la station biologique de Mourmansk au bord de la mer de Barents.
 Il termine ses études en 1912 et enseigne à l'université de 1912 à 1930. Dans les premières années du pouvoir soviétique, il travaille au laboratoire de zoologie maritime et fonde la première école d'océanologie. C'est à son initiative que sont prises les premières photographies aériennes des déplacements de bancs de poissons.
